--- a/AAII_Financials/Yearly/NLOK_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NLOK_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>NLOK</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,144 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43924</v>
+      </c>
+      <c r="E7" s="2">
         <v>43553</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43189</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42461</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42097</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41726</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41362</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4731000</v>
+        <v>2490000</v>
       </c>
       <c r="E8" s="3">
-        <v>4834000</v>
+        <v>2456000</v>
       </c>
       <c r="F8" s="3">
+        <v>2559000</v>
+      </c>
+      <c r="G8" s="3">
         <v>4019000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3600000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3956000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6676000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6906000</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1050000</v>
+        <v>393000</v>
       </c>
       <c r="E9" s="3">
-        <v>1032000</v>
+        <v>455000</v>
       </c>
       <c r="F9" s="3">
+        <v>463000</v>
+      </c>
+      <c r="G9" s="3">
         <v>853000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>615000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>892000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2157000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2192000</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3681000</v>
+        <v>2097000</v>
       </c>
       <c r="E10" s="3">
-        <v>3802000</v>
+        <v>2001000</v>
       </c>
       <c r="F10" s="3">
+        <v>2096000</v>
+      </c>
+      <c r="G10" s="3">
         <v>3166000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2985000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3064000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4519000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4714000</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,35 +814,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>913000</v>
+        <v>328000</v>
       </c>
       <c r="E12" s="3">
-        <v>956000</v>
+        <v>420000</v>
       </c>
       <c r="F12" s="3">
+        <v>455000</v>
+      </c>
+      <c r="G12" s="3">
         <v>823000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>748000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>812000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1039000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2038000</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -854,63 +871,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>241000</v>
+        <v>35000</v>
       </c>
       <c r="E14" s="3">
-        <v>-243000</v>
+        <v>221000</v>
       </c>
       <c r="F14" s="3">
+        <v>-273000</v>
+      </c>
+      <c r="G14" s="3">
         <v>273000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>136000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>164000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>264000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>77000</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>207000</v>
+        <v>79000</v>
       </c>
       <c r="E15" s="3">
-        <v>220000</v>
+        <v>80000</v>
       </c>
       <c r="F15" s="3">
+        <v>87000</v>
+      </c>
+      <c r="G15" s="3">
         <v>147000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>57000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>87000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>156000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>286000</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -919,62 +945,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4351000</v>
+        <v>1904000</v>
       </c>
       <c r="E17" s="3">
-        <v>4132000</v>
+        <v>2298000</v>
       </c>
       <c r="F17" s="3">
+        <v>2060000</v>
+      </c>
+      <c r="G17" s="3">
         <v>4119000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3143000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3802000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5493000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5800000</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>380000</v>
+        <v>586000</v>
       </c>
       <c r="E18" s="3">
-        <v>702000</v>
+        <v>158000</v>
       </c>
       <c r="F18" s="3">
+        <v>499000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>457000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>154000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1183000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1106000</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -986,143 +1019,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-64000</v>
+        <v>429000</v>
       </c>
       <c r="E20" s="3">
-        <v>-9000</v>
+        <v>-57000</v>
       </c>
       <c r="F20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="3">
         <v>46000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>10000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>25000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>57000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>39000</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>931000</v>
+        <v>1630000</v>
       </c>
       <c r="E21" s="3">
-        <v>1333000</v>
+        <v>741000</v>
       </c>
       <c r="F21" s="3">
-        <v>438000</v>
+        <v>992000</v>
       </c>
       <c r="G21" s="3">
-        <v>766000</v>
+        <v>245000</v>
       </c>
       <c r="H21" s="3">
-        <v>618000</v>
+        <v>906000</v>
       </c>
       <c r="I21" s="3">
-        <v>1731000</v>
-      </c>
-      <c r="J21" s="3">
+        <v>670000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="3">
         <v>1783000</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>196000</v>
+      </c>
+      <c r="E22" s="3">
         <v>208000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>256000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>208000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>75000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>78000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>84000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>139000</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>108000</v>
+        <v>819000</v>
       </c>
       <c r="E23" s="3">
-        <v>437000</v>
+        <v>-107000</v>
       </c>
       <c r="F23" s="3">
+        <v>244000</v>
+      </c>
+      <c r="G23" s="3">
         <v>-262000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>392000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>101000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1156000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1006000</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>149000</v>
+        <v>241000</v>
       </c>
       <c r="E24" s="3">
-        <v>-31000</v>
+        <v>5000</v>
       </c>
       <c r="F24" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="G24" s="3">
         <v>-26000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1213000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-8000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>258000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>251000</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1147,63 +1196,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-41000</v>
+        <v>578000</v>
       </c>
       <c r="E26" s="3">
-        <v>468000</v>
+        <v>-112000</v>
       </c>
       <c r="F26" s="3">
+        <v>306000</v>
+      </c>
+      <c r="G26" s="3">
         <v>-236000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-821000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>109000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>898000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>755000</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-41000</v>
+        <v>578000</v>
       </c>
       <c r="E27" s="3">
-        <v>468000</v>
+        <v>-112000</v>
       </c>
       <c r="F27" s="3">
+        <v>306000</v>
+      </c>
+      <c r="G27" s="3">
         <v>-236000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-821000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>109000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>898000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>755000</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1228,36 +1286,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>72000</v>
+        <v>3309000</v>
       </c>
       <c r="E29" s="3">
-        <v>670000</v>
+        <v>143000</v>
       </c>
       <c r="F29" s="3">
+        <v>832000</v>
+      </c>
+      <c r="G29" s="3">
         <v>130000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>3309000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>769000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,9 +1346,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,63 +1376,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>64000</v>
+        <v>-429000</v>
       </c>
       <c r="E32" s="3">
-        <v>9000</v>
+        <v>57000</v>
       </c>
       <c r="F32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-46000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-10000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-25000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-57000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-39000</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3887000</v>
+      </c>
+      <c r="E33" s="3">
         <v>31000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1138000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-106000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2488000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>878000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>898000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>755000</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,68 +1466,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3887000</v>
+      </c>
+      <c r="E35" s="3">
         <v>31000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1138000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-106000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2488000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>878000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>898000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>755000</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43924</v>
+      </c>
+      <c r="E38" s="2">
         <v>43553</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43189</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42461</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42097</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41726</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41362</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,8 +1548,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,89 +1562,99 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2177000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1791000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1774000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4247000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5983000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2843000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3707000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4685000</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E42" s="3">
         <v>252000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>388000</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>42000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1017000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>377000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>62000</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>349000</v>
+      </c>
+      <c r="E43" s="3">
         <v>838000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>809000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>649000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>556000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1693000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1007000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2062000</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1577,86 +1673,95 @@
       <c r="H44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="3">
         <v>14000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>48000</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>467000</v>
+      </c>
+      <c r="E45" s="3">
         <v>305000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>522000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>428000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>378000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>862000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>547000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>614000</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3079000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3186000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3493000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5324000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6959000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5422000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5652000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6416000</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E47" s="3">
         <v>66000</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>158000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>157000</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>24</v>
@@ -1664,63 +1769,72 @@
       <c r="J47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>326000</v>
+      </c>
+      <c r="E48" s="3">
         <v>790000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>778000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>937000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>957000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2155000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1116000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2244000</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3652000</v>
+      </c>
+      <c r="E49" s="3">
         <v>10700000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10962000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11631000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3591000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3671000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6626000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7795000</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,9 +1859,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,36 +1889,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>453000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1196000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>526000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>124000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>103000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3190000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>145000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>152000</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,36 +1949,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7735000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15938000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15759000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18174000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11767000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13233000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13539000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14508000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,8 +1996,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,170 +2010,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E57" s="3">
         <v>165000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>168000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>180000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>175000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>169000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>282000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>334000</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>756000</v>
+      </c>
+      <c r="E58" s="3">
         <v>491000</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>1310000</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>350000</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>997000</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1779000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3110000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3002000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3132000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3858000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3934000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4024000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4236000</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2622000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3766000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3170000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4622000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4033000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4453000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4306000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5567000</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3465000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3961000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5026000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6876000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2207000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1746000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2095000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2094000</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1638000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2473000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2540000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3189000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1851000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>965000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1341000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1371000</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,9 +2217,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2095,9 +2247,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,36 +2277,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7725000</v>
+      </c>
+      <c r="E66" s="3">
         <v>10200000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10736000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14687000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8091000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7298000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7742000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9032000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2163,8 +2324,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,9 +2351,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,9 +2381,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,9 +2411,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,36 +2441,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3330000</v>
+      </c>
+      <c r="E72" s="3">
         <v>933000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>328000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-761000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-655000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-270000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1148000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2046000</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,9 +2501,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,9 +2531,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,36 +2561,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E76" s="3">
         <v>5738000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5023000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3487000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3676000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5935000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5797000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5476000</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,68 +2621,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43924</v>
+      </c>
+      <c r="E80" s="2">
         <v>43553</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43189</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42461</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42097</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41726</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41362</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3887000</v>
+      </c>
+      <c r="E81" s="3">
         <v>31000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1138000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-106000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2488000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>878000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>898000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>755000</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2505,35 +2703,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>361000</v>
+      </c>
+      <c r="E83" s="3">
         <v>615000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>640000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>492000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>299000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>439000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>491000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>638000</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,9 +2760,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,9 +2790,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,9 +2820,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,9 +2850,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,36 +2880,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-861000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1495000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>950000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-209000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>796000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1312000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1281000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1593000</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2707,35 +2927,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-207000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-142000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-70000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-272000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-381000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-260000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-336000</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,9 +2984,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,36 +3014,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>11379000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-241000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-21000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6766000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>7173000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1154000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-583000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-319000</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2828,35 +3061,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-7481000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-217000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-211000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-222000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3030000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-413000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-418000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,9 +3118,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,9 +3148,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,88 +3178,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10123000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1209000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3475000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5280000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4764000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-811000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1712000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>308000</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-28000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>73000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-41000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-96000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-180000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>36000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-59000</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>386000</v>
+      </c>
+      <c r="E102" s="3">
         <v>17000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2473000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1736000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3109000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-833000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-978000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1523000</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NLOK_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NLOK_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>NLOK</t>
   </si>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1630000</v>
+        <v>1376000</v>
       </c>
       <c r="E21" s="3">
-        <v>741000</v>
+        <v>716000</v>
       </c>
       <c r="F21" s="3">
-        <v>992000</v>
+        <v>1140000</v>
       </c>
       <c r="G21" s="3">
-        <v>245000</v>
+        <v>438000</v>
       </c>
       <c r="H21" s="3">
-        <v>906000</v>
+        <v>766000</v>
       </c>
       <c r="I21" s="3">
-        <v>670000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>24</v>
+        <v>618000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1731000</v>
       </c>
       <c r="K21" s="3">
         <v>1783000</v>

--- a/AAII_Financials/Yearly/NLOK_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NLOK_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>NLOK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,157 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44288</v>
+      </c>
+      <c r="E7" s="2">
         <v>43924</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43553</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43189</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42461</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42097</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41726</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41362</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2551000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2490000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2456000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2559000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4019000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3600000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3956000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6676000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6906000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>362000</v>
+      </c>
+      <c r="E9" s="3">
         <v>393000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>455000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>463000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>853000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>615000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>892000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2157000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2192000</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2189000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2097000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2001000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2096000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3166000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2985000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3064000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4519000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4714000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -815,38 +828,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E12" s="3">
         <v>328000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>420000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>455000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>823000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>748000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>812000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1039000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2038000</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,69 +891,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E14" s="3">
         <v>35000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>221000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-273000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>273000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>136000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>164000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>264000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>77000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E15" s="3">
         <v>79000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>80000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>87000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>147000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>57000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>87000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>156000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>286000</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -946,68 +972,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1644000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1904000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2298000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2060000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4119000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3143000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3802000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5493000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5800000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>907000</v>
+      </c>
+      <c r="E18" s="3">
         <v>586000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>158000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>499000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>457000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>154000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1183000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1106000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1020,158 +1053,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E20" s="3">
         <v>429000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-57000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>46000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>10000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>25000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>57000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>39000</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1166000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1376000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>716000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1140000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>438000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>766000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>618000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1731000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1783000</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E22" s="3">
         <v>196000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>208000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>256000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>208000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>75000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>78000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>84000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>139000</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>872000</v>
+      </c>
+      <c r="E23" s="3">
         <v>819000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-107000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>244000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-262000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>392000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>101000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1156000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1006000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E24" s="3">
         <v>241000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-62000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-26000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1213000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-8000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>258000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>251000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1199,69 +1248,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>696000</v>
+      </c>
+      <c r="E26" s="3">
         <v>578000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-112000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>306000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-236000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-821000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>109000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>898000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>755000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>696000</v>
+      </c>
+      <c r="E27" s="3">
         <v>578000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-112000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>306000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-236000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-821000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>109000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>898000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>755000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1289,39 +1347,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-142000</v>
+      </c>
+      <c r="E29" s="3">
         <v>3309000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>143000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>832000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>130000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>3309000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>769000</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1349,9 +1413,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1379,69 +1446,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-429000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>57000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-46000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-10000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-25000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-57000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-39000</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>554000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3887000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>31000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1138000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-106000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2488000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>878000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>898000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>755000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1469,74 +1545,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>554000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3887000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>31000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1138000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-106000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2488000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>878000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>898000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>755000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44288</v>
+      </c>
+      <c r="E38" s="2">
         <v>43924</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43553</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43189</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42461</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42097</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41726</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41362</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1549,8 +1634,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1563,208 +1649,227 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>933000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2177000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1791000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1774000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4247000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5983000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2843000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3707000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4685000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E42" s="3">
         <v>86000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>252000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>388000</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>42000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1017000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>377000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>62000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E43" s="3">
         <v>349000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>838000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>809000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>649000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>556000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1693000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1007000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2062000</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>24</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
         <v>14000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>48000</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>343000</v>
+      </c>
+      <c r="E45" s="3">
         <v>467000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>305000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>522000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>428000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>378000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>862000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>547000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>614000</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1538000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3079000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3186000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3493000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5324000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6959000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5422000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5652000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6416000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>215000</v>
+      </c>
+      <c r="E47" s="3">
         <v>225000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>66000</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>158000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>157000</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>24</v>
@@ -1772,69 +1877,78 @@
       <c r="K47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E48" s="3">
         <v>326000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>790000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>778000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>937000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>957000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2155000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1116000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2244000</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3983000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3652000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10700000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10962000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11631000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3591000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3671000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6626000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7795000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1862,9 +1976,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1892,39 +2009,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>471000</v>
+      </c>
+      <c r="E52" s="3">
         <v>453000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1196000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>526000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>124000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>103000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3190000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>145000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>152000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1952,39 +2075,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6361000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7735000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15938000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15759000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18174000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11767000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13233000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13539000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14508000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1997,8 +2126,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2011,188 +2141,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E57" s="3">
         <v>87000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>165000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>168000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>180000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>175000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>169000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>282000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>334000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>313000</v>
+      </c>
+      <c r="E58" s="3">
         <v>756000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>491000</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>1310000</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>350000</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>997000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1771000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1779000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3110000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3002000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3132000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3858000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3934000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4024000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4236000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2136000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2622000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3766000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3170000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4622000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4033000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4453000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4306000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5567000</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3288000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3465000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3961000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5026000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6876000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2207000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1746000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2095000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2094000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1437000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1638000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2473000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2540000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3189000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1851000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>965000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1341000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1371000</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2220,9 +2369,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2250,9 +2402,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2280,39 +2435,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6861000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7725000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10200000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10736000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14687000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8091000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7298000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7742000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9032000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2325,8 +2486,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2354,9 +2516,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2384,9 +2549,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2414,9 +2582,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2444,39 +2615,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2776000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3330000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>933000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>328000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-761000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-655000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-270000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1148000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2046000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2504,9 +2681,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2534,9 +2714,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2564,39 +2747,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-500000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5738000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5023000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3487000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3676000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5935000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5797000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5476000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2624,74 +2813,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44288</v>
+      </c>
+      <c r="E80" s="2">
         <v>43924</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43553</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43189</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42461</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42097</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41726</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41362</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>554000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3887000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>31000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1138000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-106000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2488000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>878000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>898000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>755000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2704,38 +2902,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E83" s="3">
         <v>361000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>615000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>640000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>492000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>299000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>439000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>491000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>638000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2763,9 +2965,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2793,9 +2998,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2823,9 +3031,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2853,9 +3064,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2883,39 +3097,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>706000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-861000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1495000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>950000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-209000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>796000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1312000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1281000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1593000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2928,38 +3148,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-89000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-207000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-142000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-70000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-272000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-381000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-260000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-336000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2987,9 +3211,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3017,39 +3244,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E94" s="3">
         <v>11379000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-241000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-21000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6766000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>7173000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1154000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-583000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-319000</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3062,38 +3295,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-373000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-7481000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-217000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-211000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-222000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3030000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-413000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-418000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3121,9 +3358,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3151,9 +3391,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3181,97 +3424,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1903000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-10123000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1209000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3475000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5280000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4764000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-811000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1712000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>308000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-9000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-28000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>73000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-41000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-96000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-180000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>36000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-59000</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1244000</v>
+      </c>
+      <c r="E102" s="3">
         <v>386000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>17000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2473000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1736000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3109000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-833000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-978000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1523000</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NLOK_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NLOK_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>NLOK</t>
   </si>
@@ -665,8 +665,8 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -1093,25 +1093,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1166000</v>
+        <v>1377000</v>
       </c>
       <c r="E21" s="3">
-        <v>1376000</v>
+        <v>1630000</v>
       </c>
       <c r="F21" s="3">
-        <v>716000</v>
+        <v>741000</v>
       </c>
       <c r="G21" s="3">
-        <v>1140000</v>
+        <v>992000</v>
       </c>
       <c r="H21" s="3">
-        <v>438000</v>
+        <v>245000</v>
       </c>
       <c r="I21" s="3">
-        <v>766000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>618000</v>
+        <v>906000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K21" s="3">
         <v>1731000</v>
@@ -2909,25 +2909,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>150000</v>
+        <v>361000</v>
       </c>
       <c r="E83" s="3">
-        <v>361000</v>
+        <v>615000</v>
       </c>
       <c r="F83" s="3">
-        <v>615000</v>
+        <v>640000</v>
       </c>
       <c r="G83" s="3">
-        <v>640000</v>
+        <v>492000</v>
       </c>
       <c r="H83" s="3">
-        <v>492000</v>
+        <v>299000</v>
       </c>
       <c r="I83" s="3">
-        <v>299000</v>
-      </c>
-      <c r="J83" s="3">
         <v>439000</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K83" s="3">
         <v>491000</v>
@@ -3107,25 +3107,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>706000</v>
+        <v>-861000</v>
       </c>
       <c r="E89" s="3">
-        <v>-861000</v>
+        <v>1495000</v>
       </c>
       <c r="F89" s="3">
-        <v>1495000</v>
+        <v>950000</v>
       </c>
       <c r="G89" s="3">
-        <v>950000</v>
+        <v>-209000</v>
       </c>
       <c r="H89" s="3">
-        <v>-209000</v>
+        <v>796000</v>
       </c>
       <c r="I89" s="3">
-        <v>796000</v>
+        <v>1312000</v>
       </c>
       <c r="J89" s="3">
-        <v>1312000</v>
+        <v>1281000</v>
       </c>
       <c r="K89" s="3">
         <v>1281000</v>
@@ -3155,25 +3155,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6000</v>
+        <v>-89000</v>
       </c>
       <c r="E91" s="3">
-        <v>-89000</v>
+        <v>-207000</v>
       </c>
       <c r="F91" s="3">
-        <v>-207000</v>
+        <v>-142000</v>
       </c>
       <c r="G91" s="3">
-        <v>-142000</v>
+        <v>-70000</v>
       </c>
       <c r="H91" s="3">
-        <v>-70000</v>
+        <v>-272000</v>
       </c>
       <c r="I91" s="3">
-        <v>-272000</v>
+        <v>-381000</v>
       </c>
       <c r="J91" s="3">
-        <v>-381000</v>
+        <v>-260000</v>
       </c>
       <c r="K91" s="3">
         <v>-260000</v>
@@ -3254,25 +3254,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-69000</v>
+        <v>11379000</v>
       </c>
       <c r="E94" s="3">
-        <v>11379000</v>
+        <v>-241000</v>
       </c>
       <c r="F94" s="3">
-        <v>-241000</v>
+        <v>-21000</v>
       </c>
       <c r="G94" s="3">
-        <v>-21000</v>
+        <v>-6766000</v>
       </c>
       <c r="H94" s="3">
-        <v>-6766000</v>
+        <v>7173000</v>
       </c>
       <c r="I94" s="3">
-        <v>7173000</v>
-      </c>
-      <c r="J94" s="3">
         <v>-1154000</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K94" s="3">
         <v>-583000</v>
@@ -3302,25 +3302,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-373000</v>
+        <v>-7481000</v>
       </c>
       <c r="E96" s="3">
-        <v>-7481000</v>
+        <v>-217000</v>
       </c>
       <c r="F96" s="3">
-        <v>-217000</v>
+        <v>-211000</v>
       </c>
       <c r="G96" s="3">
-        <v>-211000</v>
+        <v>-222000</v>
       </c>
       <c r="H96" s="3">
-        <v>-222000</v>
+        <v>-3030000</v>
       </c>
       <c r="I96" s="3">
-        <v>-3030000</v>
+        <v>-413000</v>
       </c>
       <c r="J96" s="3">
-        <v>-413000</v>
+        <v>-418000</v>
       </c>
       <c r="K96" s="3">
         <v>-418000</v>
@@ -3434,25 +3434,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1903000</v>
+        <v>-10123000</v>
       </c>
       <c r="E100" s="3">
-        <v>-10123000</v>
+        <v>-1209000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1209000</v>
+        <v>-3475000</v>
       </c>
       <c r="G100" s="3">
-        <v>-3475000</v>
+        <v>5280000</v>
       </c>
       <c r="H100" s="3">
-        <v>5280000</v>
+        <v>-4764000</v>
       </c>
       <c r="I100" s="3">
-        <v>-4764000</v>
-      </c>
-      <c r="J100" s="3">
         <v>-811000</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K100" s="3">
         <v>-1712000</v>
@@ -3467,25 +3467,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>22000</v>
+        <v>-9000</v>
       </c>
       <c r="E101" s="3">
-        <v>-9000</v>
+        <v>-28000</v>
       </c>
       <c r="F101" s="3">
-        <v>-28000</v>
+        <v>73000</v>
       </c>
       <c r="G101" s="3">
-        <v>73000</v>
+        <v>-41000</v>
       </c>
       <c r="H101" s="3">
-        <v>-41000</v>
+        <v>-96000</v>
       </c>
       <c r="I101" s="3">
-        <v>-96000</v>
-      </c>
-      <c r="J101" s="3">
         <v>-180000</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K101" s="3">
         <v>36000</v>
@@ -3500,25 +3500,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1244000</v>
+        <v>386000</v>
       </c>
       <c r="E102" s="3">
-        <v>386000</v>
+        <v>17000</v>
       </c>
       <c r="F102" s="3">
-        <v>17000</v>
+        <v>-2473000</v>
       </c>
       <c r="G102" s="3">
-        <v>-2473000</v>
+        <v>-1736000</v>
       </c>
       <c r="H102" s="3">
-        <v>-1736000</v>
+        <v>3109000</v>
       </c>
       <c r="I102" s="3">
-        <v>3109000</v>
+        <v>-833000</v>
       </c>
       <c r="J102" s="3">
-        <v>-833000</v>
+        <v>-978000</v>
       </c>
       <c r="K102" s="3">
         <v>-978000</v>

--- a/AAII_Financials/Yearly/NLOK_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NLOK_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,169 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E7" s="2">
         <v>44288</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43924</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43553</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43189</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42461</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42097</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41726</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41362</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2796000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2551000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2490000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2456000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2559000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4019000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3600000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3956000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6676000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6906000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>408000</v>
+      </c>
+      <c r="E9" s="3">
         <v>362000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>393000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>455000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>463000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>853000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>615000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>892000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2157000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2192000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2388000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2189000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2097000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2001000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2096000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3166000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2985000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3064000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4519000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4714000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -829,41 +841,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>253000</v>
+      </c>
+      <c r="E12" s="3">
         <v>267000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>328000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>420000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>455000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>823000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>748000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>812000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1039000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2038000</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -894,75 +910,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E14" s="3">
         <v>140000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>35000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>221000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-273000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>273000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>136000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>164000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>264000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>77000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E15" s="3">
         <v>74000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>79000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>80000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>87000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>147000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>57000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>87000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>156000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>286000</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -973,74 +998,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1794000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1644000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1904000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2298000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2060000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4119000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3143000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3802000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5493000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5800000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1002000</v>
+      </c>
+      <c r="E18" s="3">
         <v>907000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>586000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>158000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>499000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>457000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>154000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1183000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1106000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1054,173 +1086,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E20" s="3">
         <v>109000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>429000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-57000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>46000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>10000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>25000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>57000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>39000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1377000</v>
+        <v>1308000</v>
       </c>
       <c r="E21" s="3">
-        <v>1630000</v>
+        <v>1166000</v>
       </c>
       <c r="F21" s="3">
-        <v>741000</v>
+        <v>1376000</v>
       </c>
       <c r="G21" s="3">
-        <v>992000</v>
+        <v>716000</v>
       </c>
       <c r="H21" s="3">
-        <v>245000</v>
+        <v>1140000</v>
       </c>
       <c r="I21" s="3">
-        <v>906000</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>438000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>766000</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1731000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1783000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E22" s="3">
         <v>144000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>196000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>208000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>256000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>208000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>75000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>78000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>84000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>139000</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1042000</v>
+      </c>
+      <c r="E23" s="3">
         <v>872000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>819000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-107000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>244000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-262000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>392000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>101000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1156000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1006000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E24" s="3">
         <v>176000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>241000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-62000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-26000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1213000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-8000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>258000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>251000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1251,75 +1299,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>836000</v>
+      </c>
+      <c r="E26" s="3">
         <v>696000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>578000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-112000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>306000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-236000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-821000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>109000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>898000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>755000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>836000</v>
+      </c>
+      <c r="E27" s="3">
         <v>696000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>578000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-112000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>306000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-236000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-821000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>109000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>898000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>755000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1350,42 +1407,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-142000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>3309000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>143000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>832000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>130000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>3309000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>769000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1416,9 +1479,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1449,75 +1515,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-166000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-109000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-429000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>57000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-46000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-10000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-25000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-57000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-39000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>836000</v>
+      </c>
+      <c r="E33" s="3">
         <v>554000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3887000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>31000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1138000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-106000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2488000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>878000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>898000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>755000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1548,80 +1623,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>836000</v>
+      </c>
+      <c r="E35" s="3">
         <v>554000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3887000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>31000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1138000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-106000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2488000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>878000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>898000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>755000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E38" s="2">
         <v>44288</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43924</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43553</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43189</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42461</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42097</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41726</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41362</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1635,8 +1719,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1650,107 +1735,117 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1887000</v>
+      </c>
+      <c r="E41" s="3">
         <v>933000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2177000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1791000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1774000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4247000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5983000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2843000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3707000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4685000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E42" s="3">
         <v>18000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>86000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>252000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>388000</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>42000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1017000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>377000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>62000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E43" s="3">
         <v>244000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>349000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>838000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>809000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>649000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>556000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1693000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1007000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2062000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1776,103 +1871,112 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>14000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>48000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>187000</v>
+      </c>
+      <c r="E45" s="3">
         <v>343000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>467000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>305000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>522000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>428000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>378000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>862000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>547000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>614000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2260000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1538000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3079000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3186000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3493000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5324000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6959000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5422000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5652000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6416000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>203000</v>
+      </c>
+      <c r="E47" s="3">
         <v>215000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>225000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>66000</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>158000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>157000</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>24</v>
@@ -1880,75 +1984,84 @@
       <c r="L47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>134000</v>
+      </c>
+      <c r="E48" s="3">
         <v>154000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>326000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>790000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>778000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>937000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>957000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2155000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1116000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2244000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3896000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3983000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3652000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10700000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10962000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11631000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3591000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3671000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6626000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7795000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1979,9 +2092,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2012,42 +2128,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>450000</v>
+      </c>
+      <c r="E52" s="3">
         <v>471000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>453000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1196000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>526000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>124000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>103000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3190000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>145000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>152000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2078,42 +2200,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6943000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6361000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7735000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15938000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15759000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18174000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11767000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13233000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13539000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14508000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2127,8 +2255,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2142,206 +2271,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E57" s="3">
         <v>52000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>87000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>165000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>168000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>180000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>175000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>169000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>282000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>334000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="E58" s="3">
         <v>313000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>756000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>491000</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>1310000</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>350000</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>997000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2002000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1771000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1779000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3110000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3002000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3132000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3858000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3934000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4024000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4236000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3065000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2136000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2622000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3766000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3170000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4622000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4033000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4453000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4306000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5567000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2736000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3288000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3465000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3961000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5026000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6876000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2207000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1746000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2095000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2094000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1235000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1437000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1638000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2473000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2540000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3189000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1851000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>965000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1341000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1371000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2372,9 +2520,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2405,9 +2556,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2438,42 +2592,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7036000</v>
+      </c>
+      <c r="E66" s="3">
         <v>6861000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7725000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10200000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10736000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14687000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8091000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7298000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7742000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9032000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2487,8 +2647,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2519,9 +2680,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2552,9 +2716,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2585,9 +2752,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2618,42 +2788,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1940000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2776000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3330000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>933000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>328000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-761000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-655000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-270000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1148000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2046000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2684,9 +2860,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2717,9 +2896,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2750,42 +2932,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-500000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5738000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5023000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3487000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3676000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5935000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5797000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5476000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2816,80 +3004,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E80" s="2">
         <v>44288</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43924</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43553</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43189</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42461</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42097</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41726</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41362</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>836000</v>
+      </c>
+      <c r="E81" s="3">
         <v>554000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3887000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>31000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1138000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-106000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2488000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>878000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>898000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>755000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2903,41 +3100,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>150000</v>
+      </c>
+      <c r="F83" s="3">
         <v>361000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>615000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>640000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>492000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>299000</v>
       </c>
-      <c r="I83" s="3">
-        <v>439000</v>
-      </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>491000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>638000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2968,9 +3169,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3001,9 +3205,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3034,9 +3241,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3067,9 +3277,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3100,42 +3313,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>974000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>706000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-861000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1495000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>950000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-209000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>796000</v>
-      </c>
-      <c r="I89" s="3">
-        <v>1312000</v>
-      </c>
-      <c r="J89" s="3">
-        <v>1281000</v>
       </c>
       <c r="K89" s="3">
         <v>1281000</v>
       </c>
       <c r="L89" s="3">
+        <v>1281000</v>
+      </c>
+      <c r="M89" s="3">
         <v>1593000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3149,41 +3368,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-89000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-207000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-142000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-70000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-272000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-381000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-260000</v>
       </c>
       <c r="K91" s="3">
         <v>-260000</v>
       </c>
       <c r="L91" s="3">
+        <v>-260000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-336000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3214,9 +3437,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3247,42 +3473,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>326000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="F94" s="3">
         <v>11379000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-241000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-21000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-6766000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>7173000</v>
       </c>
-      <c r="I94" s="3">
-        <v>-1154000</v>
-      </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-583000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-319000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3296,41 +3528,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-303000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-373000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-7481000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-217000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-211000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-222000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-3030000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-413000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-418000</v>
       </c>
       <c r="K96" s="3">
         <v>-418000</v>
       </c>
       <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+        <v>-418000</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3361,9 +3597,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3394,9 +3633,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3427,106 +3669,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-333000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1903000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-10123000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1209000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-3475000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>5280000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-4764000</v>
       </c>
-      <c r="I100" s="3">
-        <v>-811000</v>
-      </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1712000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>308000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-9000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-28000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>73000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-41000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-96000</v>
       </c>
-      <c r="I101" s="3">
-        <v>-180000</v>
-      </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>36000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-59000</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>954000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1244000</v>
+      </c>
+      <c r="F102" s="3">
         <v>386000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>17000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2473000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1736000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>3109000</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-833000</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-978000</v>
       </c>
       <c r="K102" s="3">
         <v>-978000</v>
       </c>
       <c r="L102" s="3">
+        <v>-978000</v>
+      </c>
+      <c r="M102" s="3">
         <v>1523000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
